--- a/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
+++ b/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="追加模式下的复合报表--模板03" sheetId="1" r:id="rId1"/>
+    <sheet name="追加模式的复合报表--模板03" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -62,10 +62,6 @@
     <t>GROSS</t>
   </si>
   <si>
-    <t>追加模式下的复合报表--模板03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>:qty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +95,10 @@
   </si>
   <si>
     <t>:gross</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加模式的复合报表--模板03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,60 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,6 +527,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,152 +871,147 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="G7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="G8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:C6"/>
@@ -1028,6 +1023,11 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
+++ b/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,13 +173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,12 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,88 +492,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -871,138 +865,138 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="32"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="6" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
@@ -1012,6 +1006,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:C6"/>
@@ -1023,11 +1022,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
+++ b/test/org/hy/common/report/junit/append/config/templates/AppendComplex_T03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TU-PKG Qty</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>追加模式的复合报表--模板03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>:qcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,6 +487,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,7 +502,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,7 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -548,34 +556,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,138 +869,140 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D6" sqref="D6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="36" t="s">
@@ -1006,11 +1012,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:C6"/>
@@ -1022,6 +1023,11 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
